--- a/ActividadesMiguelParrales.xlsx
+++ b/ActividadesMiguelParrales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>Configuración del módulo de administración de tiempo para NIRSA</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Joao Merchán, Emilio Vera, Mario Arias</t>
+  </si>
+  <si>
+    <t>iooioioi</t>
   </si>
 </sst>
 </file>
@@ -915,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:L1289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A906" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B915" sqref="B915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,7 +3281,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="I72" s="15">
-        <f t="shared" ref="I72:I80" si="12">H72-G72</f>
+        <f t="shared" ref="I72" si="12">H72-G72</f>
         <v>0.17222222222222217</v>
       </c>
       <c r="J72" s="15">
@@ -3335,7 +3338,7 @@
         <v>0.75</v>
       </c>
       <c r="I74" s="15">
-        <f t="shared" ref="I74:I80" si="14">H74-G74</f>
+        <f t="shared" ref="I74" si="14">H74-G74</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="J74" s="15">
@@ -3392,7 +3395,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I76" s="15">
-        <f t="shared" ref="I76:I80" si="15">H76-G76</f>
+        <f t="shared" ref="I76" si="15">H76-G76</f>
         <v>0.14583333333333326</v>
       </c>
       <c r="J76" s="15">
@@ -3449,7 +3452,7 @@
         <v>0.72361111111111109</v>
       </c>
       <c r="I78" s="15">
-        <f t="shared" ref="I78:I80" si="16">H78-G78</f>
+        <f t="shared" ref="I78" si="16">H78-G78</f>
         <v>0.14027777777777772</v>
       </c>
       <c r="J78" s="15">
@@ -12959,6 +12962,9 @@
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A915" s="25"/>
+      <c r="B915" t="s">
+        <v>77</v>
+      </c>
       <c r="D915" s="14"/>
       <c r="E915" s="14"/>
       <c r="F915" s="15"/>
